--- a/biology/Botanique/Phytohormone/Phytohormone.xlsx
+++ b/biology/Botanique/Phytohormone/Phytohormone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les phytohormones, ou hormones végétales, contrôlent tous les aspects de la croissance et du développement des plantes, depuis l'embryogenèse[1], la régulation de la taille des organes, la défense contre les agents pathogènes[2],[3], la tolérance au stress[4],[5] et jusqu'au développement reproducteur[6]. Les hormones végétales sont des molécules signal, produites dans les plantes à des concentrations extrêmement faibles. Contrairement aux animaux (dans lesquels la production d'hormones est limitée à des glandes spécialisées), chaque cellule végétale est capable de produire des hormones[7],[8].
-Fritz Warmolt Went et Kenneth Thimann ont inventé le terme "phytohormone" et l'ont utilisé dans le titre de leur livre de 1937[9].
-Les phytohormones sont présentes dans tout le règne végétal, et même dans les algues, où elles ont des fonctions similaires à celles observées dans les plantes vasculaires[10].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les phytohormones, ou hormones végétales, contrôlent tous les aspects de la croissance et du développement des plantes, depuis l'embryogenèse, la régulation de la taille des organes, la défense contre les agents pathogènes la tolérance au stress, et jusqu'au développement reproducteur. Les hormones végétales sont des molécules signal, produites dans les plantes à des concentrations extrêmement faibles. Contrairement aux animaux (dans lesquels la production d'hormones est limitée à des glandes spécialisées), chaque cellule végétale est capable de produire des hormones,.
+Fritz Warmolt Went et Kenneth Thimann ont inventé le terme "phytohormone" et l'ont utilisé dans le titre de leur livre de 1937.
+Les phytohormones sont présentes dans tout le règne végétal, et même dans les algues, où elles ont des fonctions similaires à celles observées dans les plantes vasculaires.
 Pour être une phytohormone, une substance doit être:
 endogène (c'est-à-dire non fournie par l'environnement)
 oligodynamique (c'est-à-dire agir à faible dose, de l'ordre de la micromole)
